--- a/data/trans_bre/P2C_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P2C_R2-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,88</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,16</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,6%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,4%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,67%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,68%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,99; 7,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,62; 17,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,14; 14,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,19; 8,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,65; 44,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,18; 56,61</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,12; 72,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,3; 198,06</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,65</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>27,19</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,76</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,38</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>73,11%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>69,43%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,95%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,06%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,27; 26,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,23; 31,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,65; 25,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,56; 12,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>50,74; 98,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>50,03; 89,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>35,47; 74,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,24; 131,31</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,64</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,36</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,12</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,58%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,92%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,2%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,72%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,42; 9,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,98; 11,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,75; 14,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,22; 6,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,36; 18,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,04; 16,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,39; 28,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,36; 37,74</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,05</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,85</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,83</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,81%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,9%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,36%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,81; -0,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,82; -1,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,88; 5,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,32; 10,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,99; -3,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,75; -3,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,38; 19,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,32; 209,24</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,93</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,21</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,84%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,05%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,02%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,85%</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,3; 11,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,71; 3,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,29; 6,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,1; 4,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,96; 127,81</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,09; 13,61</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,3; 60,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,97; 72,47</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,94</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,46</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>32,9</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,91%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,89%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>386,13%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,74; 12,17</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,67; 9,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,45; 10,8</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,22; 72,24</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,12; 153,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,29; 45,13</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,35; 112,43</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,78; 1175,4</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,18</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,78</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,36</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,76%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,31%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,61%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,25; 7,45</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,58; 18,97</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,82; 17,58</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,81; 14,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,47; 39,54</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,51; 59,95</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,1; 74,47</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,52; 82,82</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>5,37</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>6,81</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>7,45</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>9,43</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>18,43%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>15,21%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>23,78%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>79,05%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>3,04; 7,85</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>4,29; 9,13</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>5,07; 9,62</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>4,0; 23,68</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>10,01; 28,25</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>9,28; 20,8</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>15,87; 31,99</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>31,21; 220,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P2C_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P2C_R2-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 7,42</t>
+          <t>-2,7; 7,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,62; 17,63</t>
+          <t>4,1; 17,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,14; 14,99</t>
+          <t>3,26; 15,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 8,11</t>
+          <t>-2,59; 8,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-13,65; 44,01</t>
+          <t>-13,09; 44,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,18; 56,61</t>
+          <t>10,91; 54,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>12,12; 72,45</t>
+          <t>12,65; 81,55</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-38,3; 198,06</t>
+          <t>-30,79; 197,97</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,27; 26,77</t>
+          <t>15,96; 27,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>21,23; 31,93</t>
+          <t>21,69; 32,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,65; 25,77</t>
+          <t>14,31; 25,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 12,19</t>
+          <t>-0,78; 12,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>50,74; 98,14</t>
+          <t>49,15; 102,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>50,03; 89,29</t>
+          <t>51,85; 90,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>35,47; 74,04</t>
+          <t>35,08; 72,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-9,24; 131,31</t>
+          <t>-4,97; 134,71</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 9,59</t>
+          <t>-1,58; 9,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,98; 11,56</t>
+          <t>2,64; 12,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,75; 14,96</t>
+          <t>5,04; 15,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 6,75</t>
+          <t>-5,13; 6,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 18,5</t>
+          <t>-2,75; 18,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,04; 16,24</t>
+          <t>3,4; 16,8</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,39; 28,8</t>
+          <t>8,58; 29,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-23,36; 37,74</t>
+          <t>-20,02; 34,37</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-12,81; -0,99</t>
+          <t>-12,75; -1,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-13,82; -1,92</t>
+          <t>-13,81; -2,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 5,4</t>
+          <t>-5,43; 5,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 10,98</t>
+          <t>-0,68; 10,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-35,99; -3,23</t>
+          <t>-36,08; -4,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-24,75; -3,69</t>
+          <t>-24,54; -3,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-14,38; 19,21</t>
+          <t>-16,4; 18,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-10,32; 209,24</t>
+          <t>-5,52; 250,7</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,3; 11,69</t>
+          <t>2,19; 12,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 3,17</t>
+          <t>-8,79; 3,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 6,17</t>
+          <t>-3,22; 6,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 4,99</t>
+          <t>-1,61; 4,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,96; 127,81</t>
+          <t>14,97; 144,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-29,09; 13,61</t>
+          <t>-29,99; 12,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-22,3; 60,19</t>
+          <t>-20,45; 58,57</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-11,97; 72,47</t>
+          <t>-14,29; 64,41</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,74; 12,17</t>
+          <t>1,65; 12,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 9,02</t>
+          <t>-4,53; 9,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,45; 10,8</t>
+          <t>0,13; 11,01</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,22; 72,24</t>
+          <t>2,06; 66,94</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>11,12; 153,22</t>
+          <t>12,06; 152,07</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-17,29; 45,13</t>
+          <t>-16,54; 46,4</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,35; 112,43</t>
+          <t>0,29; 123,56</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>23,78; 1175,4</t>
+          <t>22,88; 1162,11</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 7,45</t>
+          <t>-6,97; 7,63</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,58; 18,97</t>
+          <t>1,86; 18,99</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,82; 17,58</t>
+          <t>2,13; 17,31</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,81; 14,94</t>
+          <t>5,4; 15,14</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-27,47; 39,54</t>
+          <t>-27,0; 42,28</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,51; 59,95</t>
+          <t>4,74; 61,11</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,1; 74,47</t>
+          <t>6,95; 74,98</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>20,52; 82,82</t>
+          <t>21,06; 81,94</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,04; 7,85</t>
+          <t>3,03; 7,64</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4,29; 9,13</t>
+          <t>4,63; 9,63</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,07; 9,62</t>
+          <t>5,06; 9,87</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,0; 23,68</t>
+          <t>3,97; 24,36</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>10,01; 28,25</t>
+          <t>9,83; 27,14</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>9,28; 20,8</t>
+          <t>10,2; 22,37</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>15,87; 31,99</t>
+          <t>15,69; 33,01</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>31,21; 220,25</t>
+          <t>30,74; 208,36</t>
         </is>
       </c>
     </row>
